--- a/generated_docs/WR_89775268_WeekEnding_072025.xlsx
+++ b/generated_docs/WR_89775268_WeekEnding_072025.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/30/2025 01:48 PM</t>
+          <t>Report Generated On: 08/16/2025 12:47 AM</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>07/17/2025 to 07/20/25</t>
+          <t>07/14/2025 to 07/20/25</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">

--- a/generated_docs/WR_89775268_WeekEnding_072025.xlsx
+++ b/generated_docs/WR_89775268_WeekEnding_072025.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I121"/>
+  <dimension ref="A2:I161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:47 AM</t>
+          <t>Report Generated On: 08/18/2025 09:48 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>38510.55</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -737,35 +737,35 @@
     <row r="16">
       <c r="A16" s="9" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B16" s="9" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C16" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D16" s="9" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E16" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F16" s="10" t="n">
-        <v>678</v>
+        <v>12</v>
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>630.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -776,7 +776,7 @@
       </c>
       <c r="B17" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C17" s="12" t="inlineStr">
@@ -786,20 +786,20 @@
       </c>
       <c r="D17" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E17" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F17" s="13" t="n">
-        <v>1</v>
+        <v>678</v>
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -810,7 +810,7 @@
       </c>
       <c r="B18" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C18" s="9" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="D18" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E18" s="9" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -844,7 +844,7 @@
       </c>
       <c r="B19" s="12" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C19" s="12" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="D19" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E19" s="12" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -878,7 +878,7 @@
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="D20" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E20" s="9" t="inlineStr">
@@ -901,52 +901,52 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B21" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C21" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D21" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E21" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F21" s="13" t="n">
-        <v>691</v>
+        <v>1</v>
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>1616.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>ANC-DHM-10-84-T1-C</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="D22" s="9" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E22" s="9" t="inlineStr">
@@ -965,79 +965,79 @@
         </is>
       </c>
       <c r="F22" s="10" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B23" s="12" t="inlineStr">
         <is>
-          <t>CNC-SNB-2</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C23" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E23" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F23" s="13" t="n">
-        <v>2</v>
+        <v>691</v>
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>7.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D24" s="9" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E24" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F24" s="10" t="n">
-        <v>1134</v>
+        <v>12</v>
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>1054.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>DEC-20AL-C</t>
+          <t>ANC-DHM-10-84-T1-C</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="D25" s="12" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
       <c r="E25" s="12" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>95.15000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-42P-EP-C</t>
+          <t>CNC-SNB-2</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
+          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -1101,11 +1101,11 @@
         </is>
       </c>
       <c r="F26" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>35.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
@@ -1126,20 +1126,20 @@
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F27" s="13" t="n">
-        <v>1</v>
+        <v>1134</v>
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>DEC-20AL-C</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>GYD-MPY</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>GYD,Marker-Plastic-Yellow</t>
         </is>
       </c>
       <c r="E29" s="12" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>GYF-38-78W-I-C</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>GYF,3/8,78Wire mt,Insulator Adder,Corros</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>SAA-DE-20-C</t>
+          <t>GYF-38-D-42P-EP-C</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1275,86 +1275,86 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>CND-S2</t>
+          <t>GYW-38C</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2</t>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F32" s="10" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>27.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>INS-15-D-S-C</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F33" s="13" t="n">
-        <v>690</v>
+        <v>1</v>
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>1614.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
@@ -1364,31 +1364,31 @@
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F34" s="10" t="n">
-        <v>694</v>
+        <v>1</v>
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>645.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
@@ -1411,18 +1411,18 @@
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>PLD-EYE-C</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="D36" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
         </is>
       </c>
       <c r="E36" s="9" t="inlineStr">
@@ -1441,17 +1441,17 @@
         </is>
       </c>
       <c r="F36" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B37" s="12" t="inlineStr">
@@ -1479,13 +1479,13 @@
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B38" s="9" t="inlineStr">
@@ -1513,52 +1513,52 @@
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B39" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>SAA-DE-20-C</t>
         </is>
       </c>
       <c r="C39" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D39" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
         </is>
       </c>
       <c r="E39" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F39" s="13" t="n">
-        <v>628</v>
+        <v>1</v>
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>1469.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C40" s="9" t="inlineStr">
@@ -1568,41 +1568,41 @@
       </c>
       <c r="D40" s="9" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E40" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F40" s="10" t="n">
-        <v>636</v>
+        <v>12</v>
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>591.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B41" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CND-S2</t>
         </is>
       </c>
       <c r="C41" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D41" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CND,Stirrup #2</t>
         </is>
       </c>
       <c r="E41" s="12" t="inlineStr">
@@ -1615,62 +1615,62 @@
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B42" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C42" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D42" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E42" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F42" s="10" t="n">
-        <v>1</v>
+        <v>690</v>
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B43" s="12" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C43" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D43" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E43" s="12" t="inlineStr">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="F43" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B44" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C44" s="9" t="inlineStr">
@@ -1704,65 +1704,65 @@
       </c>
       <c r="D44" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E44" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F44" s="10" t="n">
-        <v>1</v>
+        <v>694</v>
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="12" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B45" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C45" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D45" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E45" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F45" s="13" t="n">
-        <v>709</v>
+        <v>1</v>
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>1659.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="9" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B46" s="9" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C46" s="9" t="inlineStr">
@@ -1772,31 +1772,31 @@
       </c>
       <c r="D46" s="9" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E46" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F46" s="10" t="n">
-        <v>714</v>
+        <v>1</v>
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>664.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="12" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B47" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C47" s="12" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="D47" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E47" s="12" t="inlineStr">
@@ -1819,18 +1819,18 @@
       </c>
       <c r="G47" s="13" t="inlineStr"/>
       <c r="H47" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="9" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B48" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C48" s="9" t="inlineStr">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="D48" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E48" s="9" t="inlineStr">
@@ -1853,18 +1853,18 @@
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="12" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B49" s="12" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C49" s="12" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="D49" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E49" s="12" t="inlineStr">
@@ -1887,52 +1887,52 @@
       </c>
       <c r="G49" s="13" t="inlineStr"/>
       <c r="H49" s="14" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B50" s="9" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C50" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D50" s="9" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E50" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F50" s="10" t="n">
-        <v>716</v>
+        <v>12</v>
       </c>
       <c r="G50" s="10" t="inlineStr"/>
       <c r="H50" s="11" t="n">
-        <v>1675.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B51" s="12" t="inlineStr">
         <is>
-          <t>XCO-27-100-8-C</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C51" s="12" t="inlineStr">
@@ -1942,41 +1942,41 @@
       </c>
       <c r="D51" s="12" t="inlineStr">
         <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E51" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F51" s="13" t="n">
-        <v>1</v>
+        <v>628</v>
       </c>
       <c r="G51" s="13" t="inlineStr"/>
       <c r="H51" s="14" t="n">
-        <v>62.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B52" s="9" t="inlineStr">
         <is>
-          <t>SVD-SG10</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C52" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D52" s="9" t="inlineStr">
         <is>
-          <t>SVD, Service Grip, 1/0</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E52" s="9" t="inlineStr">
@@ -1985,17 +1985,17 @@
         </is>
       </c>
       <c r="F52" s="10" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G52" s="10" t="inlineStr"/>
       <c r="H52" s="11" t="n">
-        <v>95.15000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="12" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B53" s="12" t="inlineStr">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="F53" s="13" t="n">
-        <v>714</v>
+        <v>636</v>
       </c>
       <c r="G53" s="13" t="inlineStr"/>
       <c r="H53" s="14" t="n">
-        <v>664.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B54" s="9" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C54" s="9" t="inlineStr">
@@ -2044,7 +2044,7 @@
       </c>
       <c r="D54" s="9" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E54" s="9" t="inlineStr">
@@ -2057,87 +2057,198 @@
       </c>
       <c r="G54" s="10" t="inlineStr"/>
       <c r="H54" s="11" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H55" s="16" t="n">
-        <v>14144.74</v>
+      <c r="A55" s="12" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B55" s="12" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C55" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D55" s="12" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E55" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F55" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="13" t="inlineStr"/>
+      <c r="H55" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B56" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-4</t>
+        </is>
+      </c>
+      <c r="C56" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D56" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 4</t>
+        </is>
+      </c>
+      <c r="E56" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F56" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" s="10" t="inlineStr"/>
+      <c r="H56" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="12" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B57" s="12" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C57" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D57" s="12" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E57" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F57" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="13" t="inlineStr"/>
+      <c r="H57" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="7" t="inlineStr">
-        <is>
-          <t>Tuesday (07/15/2025)</t>
-        </is>
+      <c r="A58" s="9" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B58" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C58" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E58" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F58" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G58" s="10" t="inlineStr"/>
+      <c r="H58" s="11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B59" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C59" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D59" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E59" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F59" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G59" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H59" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
+      <c r="A59" s="12" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B59" s="12" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C59" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D59" s="12" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+        </is>
+      </c>
+      <c r="E59" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F59" s="13" t="n">
+        <v>709</v>
+      </c>
+      <c r="G59" s="13" t="inlineStr"/>
+      <c r="H59" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="9" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B60" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C60" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D60" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E60" s="9" t="inlineStr">
@@ -2146,100 +2257,100 @@
         </is>
       </c>
       <c r="F60" s="10" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G60" s="10" t="inlineStr"/>
       <c r="H60" s="11" t="n">
-        <v>34.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B61" s="12" t="inlineStr">
         <is>
-          <t>CNC-SNB-10</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C61" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D61" s="12" t="inlineStr">
         <is>
-          <t>CNC,Splice Non-Tension Bare,#336-#1033</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E61" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F61" s="13" t="n">
-        <v>3</v>
+        <v>714</v>
       </c>
       <c r="G61" s="13" t="inlineStr"/>
       <c r="H61" s="14" t="n">
-        <v>60.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B62" s="9" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C62" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D62" s="9" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E62" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F62" s="10" t="n">
-        <v>699</v>
+        <v>1</v>
       </c>
       <c r="G62" s="10" t="inlineStr"/>
       <c r="H62" s="11" t="n">
-        <v>1635.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B63" s="12" t="inlineStr">
         <is>
-          <t>DEC-20AL-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C63" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D63" s="12" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E63" s="12" t="inlineStr">
@@ -2248,32 +2359,32 @@
         </is>
       </c>
       <c r="F63" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G63" s="13" t="inlineStr"/>
       <c r="H63" s="14" t="n">
-        <v>572.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B64" s="9" t="inlineStr">
         <is>
-          <t>DEG-10-PNA</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C64" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D64" s="9" t="inlineStr">
         <is>
-          <t>DEG,1/0,Primary Neutral Al</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E64" s="9" t="inlineStr">
@@ -2282,45 +2393,45 @@
         </is>
       </c>
       <c r="F64" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G64" s="10" t="inlineStr"/>
       <c r="H64" s="11" t="n">
-        <v>572.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="12" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B65" s="12" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>PLD-EYE-C</t>
         </is>
       </c>
       <c r="C65" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D65" s="12" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
         </is>
       </c>
       <c r="E65" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F65" s="13" t="n">
-        <v>690</v>
+        <v>2</v>
       </c>
       <c r="G65" s="13" t="inlineStr"/>
       <c r="H65" s="14" t="n">
-        <v>641.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2331,7 +2442,7 @@
       </c>
       <c r="B66" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C66" s="9" t="inlineStr">
@@ -2341,7 +2452,7 @@
       </c>
       <c r="D66" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E66" s="9" t="inlineStr">
@@ -2350,32 +2461,32 @@
         </is>
       </c>
       <c r="F66" s="10" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G66" s="10" t="inlineStr"/>
       <c r="H66" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="12" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B67" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C67" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E67" s="12" t="inlineStr">
@@ -2388,62 +2499,62 @@
       </c>
       <c r="G67" s="13" t="inlineStr"/>
       <c r="H67" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="9" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B68" s="9" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C68" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D68" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E68" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F68" s="10" t="n">
-        <v>1</v>
+        <v>716</v>
       </c>
       <c r="G68" s="10" t="inlineStr"/>
       <c r="H68" s="11" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="12" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B69" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C69" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E69" s="12" t="inlineStr">
@@ -2452,22 +2563,22 @@
         </is>
       </c>
       <c r="F69" s="13" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G69" s="13" t="inlineStr"/>
       <c r="H69" s="14" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B70" s="9" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>XCO-27-100-8-C</t>
         </is>
       </c>
       <c r="C70" s="9" t="inlineStr">
@@ -2477,41 +2588,41 @@
       </c>
       <c r="D70" s="9" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
       <c r="E70" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F70" s="10" t="n">
-        <v>645</v>
+        <v>1</v>
       </c>
       <c r="G70" s="10" t="inlineStr"/>
       <c r="H70" s="11" t="n">
-        <v>1509.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="12" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B71" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>SVD-SG10</t>
         </is>
       </c>
       <c r="C71" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D71" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>SVD, Service Grip, 1/0</t>
         </is>
       </c>
       <c r="E71" s="12" t="inlineStr">
@@ -2524,13 +2635,13 @@
       </c>
       <c r="G71" s="13" t="inlineStr"/>
       <c r="H71" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="9" t="inlineStr">
         <is>
-          <t>Point 22</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B72" s="9" t="inlineStr">
@@ -2554,22 +2665,22 @@
         </is>
       </c>
       <c r="F72" s="10" t="n">
-        <v>654</v>
+        <v>714</v>
       </c>
       <c r="G72" s="10" t="inlineStr"/>
       <c r="H72" s="11" t="n">
-        <v>608.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="12" t="inlineStr">
         <is>
-          <t>Point 22</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B73" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>EQL-1-4-C-2-S-X-C</t>
         </is>
       </c>
       <c r="C73" s="12" t="inlineStr">
@@ -2579,7 +2690,7 @@
       </c>
       <c r="D73" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
         </is>
       </c>
       <c r="E73" s="12" t="inlineStr">
@@ -2592,28 +2703,28 @@
       </c>
       <c r="G73" s="13" t="inlineStr"/>
       <c r="H73" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="9" t="inlineStr">
         <is>
-          <t>Point 22</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B74" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>SWI-35P-CO1-100-H</t>
         </is>
       </c>
       <c r="C74" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D74" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>SWI,35kV,Porc,LineCutout 1PH,100A,Hook</t>
         </is>
       </c>
       <c r="E74" s="9" t="inlineStr">
@@ -2622,192 +2733,81 @@
         </is>
       </c>
       <c r="F74" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" s="10" t="inlineStr"/>
       <c r="H74" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="12" t="inlineStr">
-        <is>
-          <t>Point 22</t>
-        </is>
-      </c>
-      <c r="B75" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-4</t>
-        </is>
-      </c>
-      <c r="C75" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D75" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 4</t>
-        </is>
-      </c>
-      <c r="E75" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F75" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G75" s="13" t="inlineStr"/>
-      <c r="H75" s="14" t="n">
-        <v>198.88</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="9" t="inlineStr">
-        <is>
-          <t>Point 22</t>
-        </is>
-      </c>
-      <c r="B76" s="9" t="inlineStr">
-        <is>
-          <t>SAA-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C76" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D76" s="9" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E76" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F76" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G76" s="10" t="inlineStr"/>
-      <c r="H76" s="11" t="n">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="12" t="inlineStr">
-        <is>
-          <t>Point 23</t>
-        </is>
-      </c>
-      <c r="B77" s="12" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C77" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D77" s="12" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
-        </is>
-      </c>
-      <c r="E77" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F77" s="13" t="n">
-        <v>672</v>
-      </c>
-      <c r="G77" s="13" t="inlineStr"/>
-      <c r="H77" s="14" t="n">
-        <v>1572.48</v>
+      <c r="A75" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H75" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="9" t="inlineStr">
-        <is>
-          <t>Point 24</t>
-        </is>
-      </c>
-      <c r="B78" s="9" t="inlineStr">
-        <is>
-          <t>CON-2-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C78" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D78" s="9" t="inlineStr">
-        <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
-        </is>
-      </c>
-      <c r="E78" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F78" s="10" t="n">
-        <v>618</v>
-      </c>
-      <c r="G78" s="10" t="inlineStr"/>
-      <c r="H78" s="11" t="n">
-        <v>574.74</v>
+      <c r="A78" s="7" t="inlineStr">
+        <is>
+          <t>Tuesday (07/15/2025)</t>
+        </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="12" t="inlineStr">
-        <is>
-          <t>Point 24</t>
-        </is>
-      </c>
-      <c r="B79" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C79" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D79" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E79" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F79" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G79" s="13" t="inlineStr"/>
-      <c r="H79" s="14" t="n">
-        <v>31.08</v>
+      <c r="A79" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B79" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C79" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D79" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E79" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F79" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G79" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H79" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="9" t="inlineStr">
         <is>
-          <t>Point 24</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B80" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C80" s="9" t="inlineStr">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="D80" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E80" s="9" t="inlineStr">
@@ -2826,22 +2826,22 @@
         </is>
       </c>
       <c r="F80" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G80" s="10" t="inlineStr"/>
       <c r="H80" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="12" t="inlineStr">
         <is>
-          <t>Point 24</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B81" s="12" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C81" s="12" t="inlineStr">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="D81" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E81" s="12" t="inlineStr">
@@ -2860,32 +2860,32 @@
         </is>
       </c>
       <c r="F81" s="13" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G81" s="13" t="inlineStr"/>
       <c r="H81" s="14" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="9" t="inlineStr">
         <is>
-          <t>Point 24</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B82" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>CNC-SNB-10</t>
         </is>
       </c>
       <c r="C82" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D82" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>CNC,Splice Non-Tension Bare,#336-#1033</t>
         </is>
       </c>
       <c r="E82" s="9" t="inlineStr">
@@ -2894,17 +2894,17 @@
         </is>
       </c>
       <c r="F82" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G82" s="10" t="inlineStr"/>
       <c r="H82" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="12" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B83" s="12" t="inlineStr">
@@ -2928,66 +2928,66 @@
         </is>
       </c>
       <c r="F83" s="13" t="n">
-        <v>682</v>
+        <v>699</v>
       </c>
       <c r="G83" s="13" t="inlineStr"/>
       <c r="H83" s="14" t="n">
-        <v>1595.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="9" t="inlineStr">
         <is>
-          <t>Point 26</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B84" s="9" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>DEC-20AL-C</t>
         </is>
       </c>
       <c r="C84" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D84" s="9" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
       <c r="E84" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F84" s="10" t="n">
-        <v>744</v>
+        <v>2</v>
       </c>
       <c r="G84" s="10" t="inlineStr"/>
       <c r="H84" s="11" t="n">
-        <v>691.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="12" t="inlineStr">
         <is>
-          <t>Point 26</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B85" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>DEG-10-PNA</t>
         </is>
       </c>
       <c r="C85" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D85" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>DEG,1/0,Primary Neutral Al</t>
         </is>
       </c>
       <c r="E85" s="12" t="inlineStr">
@@ -2996,32 +2996,32 @@
         </is>
       </c>
       <c r="F85" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G85" s="13" t="inlineStr"/>
       <c r="H85" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="9" t="inlineStr">
         <is>
-          <t>Point 26</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B86" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-D-S-C</t>
         </is>
       </c>
       <c r="C86" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D86" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
         </is>
       </c>
       <c r="E86" s="9" t="inlineStr">
@@ -3030,32 +3030,32 @@
         </is>
       </c>
       <c r="F86" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G86" s="10" t="inlineStr"/>
       <c r="H86" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="12" t="inlineStr">
         <is>
-          <t>Point 26</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B87" s="12" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C87" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D87" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E87" s="12" t="inlineStr">
@@ -3064,22 +3064,22 @@
         </is>
       </c>
       <c r="F87" s="13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G87" s="13" t="inlineStr"/>
       <c r="H87" s="14" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="9" t="inlineStr">
         <is>
-          <t>Point 26</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B88" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C88" s="9" t="inlineStr">
@@ -3089,65 +3089,65 @@
       </c>
       <c r="D88" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E88" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F88" s="10" t="n">
-        <v>1</v>
+        <v>690</v>
       </c>
       <c r="G88" s="10" t="inlineStr"/>
       <c r="H88" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="12" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B89" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C89" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D89" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E89" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F89" s="13" t="n">
-        <v>682</v>
+        <v>1</v>
       </c>
       <c r="G89" s="13" t="inlineStr"/>
       <c r="H89" s="14" t="n">
-        <v>1595.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="9" t="inlineStr">
         <is>
-          <t>Point 28</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B90" s="9" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C90" s="9" t="inlineStr">
@@ -3157,31 +3157,31 @@
       </c>
       <c r="D90" s="9" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E90" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F90" s="10" t="n">
-        <v>672</v>
+        <v>1</v>
       </c>
       <c r="G90" s="10" t="inlineStr"/>
       <c r="H90" s="11" t="n">
-        <v>624.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="12" t="inlineStr">
         <is>
-          <t>Point 28</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B91" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C91" s="12" t="inlineStr">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="D91" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E91" s="12" t="inlineStr">
@@ -3204,18 +3204,18 @@
       </c>
       <c r="G91" s="13" t="inlineStr"/>
       <c r="H91" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="9" t="inlineStr">
         <is>
-          <t>Point 28</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B92" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C92" s="9" t="inlineStr">
@@ -3225,7 +3225,7 @@
       </c>
       <c r="D92" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E92" s="9" t="inlineStr">
@@ -3238,62 +3238,62 @@
       </c>
       <c r="G92" s="10" t="inlineStr"/>
       <c r="H92" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="12" t="inlineStr">
         <is>
-          <t>Point 28</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B93" s="12" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C93" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D93" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E93" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F93" s="13" t="n">
-        <v>1</v>
+        <v>645</v>
       </c>
       <c r="G93" s="13" t="inlineStr"/>
       <c r="H93" s="14" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="9" t="inlineStr">
         <is>
-          <t>Point 28</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B94" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C94" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D94" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E94" s="9" t="inlineStr">
@@ -3302,22 +3302,22 @@
         </is>
       </c>
       <c r="F94" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G94" s="10" t="inlineStr"/>
       <c r="H94" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="12" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B95" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C95" s="12" t="inlineStr">
@@ -3327,65 +3327,65 @@
       </c>
       <c r="D95" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E95" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F95" s="13" t="n">
-        <v>686</v>
+        <v>1</v>
       </c>
       <c r="G95" s="13" t="inlineStr"/>
       <c r="H95" s="14" t="n">
-        <v>1605.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="9" t="inlineStr">
         <is>
-          <t>Point 30</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B96" s="9" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C96" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D96" s="9" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E96" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F96" s="10" t="n">
-        <v>670</v>
+        <v>12</v>
       </c>
       <c r="G96" s="10" t="inlineStr"/>
       <c r="H96" s="11" t="n">
-        <v>623.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="12" t="inlineStr">
         <is>
-          <t>Point 30</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B97" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C97" s="12" t="inlineStr">
@@ -3395,31 +3395,31 @@
       </c>
       <c r="D97" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E97" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F97" s="13" t="n">
-        <v>1</v>
+        <v>654</v>
       </c>
       <c r="G97" s="13" t="inlineStr"/>
       <c r="H97" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="9" t="inlineStr">
         <is>
-          <t>Point 30</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B98" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C98" s="9" t="inlineStr">
@@ -3429,7 +3429,7 @@
       </c>
       <c r="D98" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E98" s="9" t="inlineStr">
@@ -3442,18 +3442,18 @@
       </c>
       <c r="G98" s="10" t="inlineStr"/>
       <c r="H98" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="12" t="inlineStr">
         <is>
-          <t>Point 30</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B99" s="12" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C99" s="12" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="D99" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E99" s="12" t="inlineStr">
@@ -3476,18 +3476,18 @@
       </c>
       <c r="G99" s="13" t="inlineStr"/>
       <c r="H99" s="14" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="9" t="inlineStr">
         <is>
-          <t>Point 30</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B100" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C100" s="9" t="inlineStr">
@@ -3497,7 +3497,7 @@
       </c>
       <c r="D100" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E100" s="9" t="inlineStr">
@@ -3510,52 +3510,52 @@
       </c>
       <c r="G100" s="10" t="inlineStr"/>
       <c r="H100" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="12" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B101" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C101" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D101" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E101" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F101" s="13" t="n">
-        <v>672</v>
+        <v>1</v>
       </c>
       <c r="G101" s="13" t="inlineStr"/>
       <c r="H101" s="14" t="n">
-        <v>1572.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="9" t="inlineStr">
         <is>
-          <t>Point 32</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B102" s="9" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C102" s="9" t="inlineStr">
@@ -3565,31 +3565,31 @@
       </c>
       <c r="D102" s="9" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E102" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F102" s="10" t="n">
-        <v>672</v>
+        <v>1</v>
       </c>
       <c r="G102" s="10" t="inlineStr"/>
       <c r="H102" s="11" t="n">
-        <v>624.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="12" t="inlineStr">
         <is>
-          <t>Point 32</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B103" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C103" s="12" t="inlineStr">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="D103" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E103" s="12" t="inlineStr">
@@ -3608,66 +3608,66 @@
         </is>
       </c>
       <c r="F103" s="13" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G103" s="13" t="inlineStr"/>
       <c r="H103" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="9" t="inlineStr">
         <is>
-          <t>Point 32</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B104" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C104" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D104" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E104" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F104" s="10" t="n">
-        <v>1</v>
+        <v>672</v>
       </c>
       <c r="G104" s="10" t="inlineStr"/>
       <c r="H104" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="12" t="inlineStr">
         <is>
-          <t>Point 32</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B105" s="12" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C105" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D105" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E105" s="12" t="inlineStr">
@@ -3676,22 +3676,22 @@
         </is>
       </c>
       <c r="F105" s="13" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G105" s="13" t="inlineStr"/>
       <c r="H105" s="14" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="9" t="inlineStr">
         <is>
-          <t>Point 32</t>
+          <t>Point 24</t>
         </is>
       </c>
       <c r="B106" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C106" s="9" t="inlineStr">
@@ -3701,65 +3701,65 @@
       </c>
       <c r="D106" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E106" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F106" s="10" t="n">
-        <v>1</v>
+        <v>618</v>
       </c>
       <c r="G106" s="10" t="inlineStr"/>
       <c r="H106" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="12" t="inlineStr">
         <is>
-          <t>Point 33</t>
+          <t>Point 24</t>
         </is>
       </c>
       <c r="B107" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C107" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D107" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E107" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F107" s="13" t="n">
-        <v>682</v>
+        <v>1</v>
       </c>
       <c r="G107" s="13" t="inlineStr"/>
       <c r="H107" s="14" t="n">
-        <v>1595.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="9" t="inlineStr">
         <is>
-          <t>Point 34</t>
+          <t>Point 24</t>
         </is>
       </c>
       <c r="B108" s="9" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C108" s="9" t="inlineStr">
@@ -3769,31 +3769,31 @@
       </c>
       <c r="D108" s="9" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E108" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F108" s="10" t="n">
-        <v>684</v>
+        <v>1</v>
       </c>
       <c r="G108" s="10" t="inlineStr"/>
       <c r="H108" s="11" t="n">
-        <v>636.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="12" t="inlineStr">
         <is>
-          <t>Point 34</t>
+          <t>Point 24</t>
         </is>
       </c>
       <c r="B109" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C109" s="12" t="inlineStr">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="D109" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E109" s="12" t="inlineStr">
@@ -3816,18 +3816,18 @@
       </c>
       <c r="G109" s="13" t="inlineStr"/>
       <c r="H109" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="9" t="inlineStr">
         <is>
-          <t>Point 34</t>
+          <t>Point 24</t>
         </is>
       </c>
       <c r="B110" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C110" s="9" t="inlineStr">
@@ -3837,7 +3837,7 @@
       </c>
       <c r="D110" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E110" s="9" t="inlineStr">
@@ -3850,18 +3850,18 @@
       </c>
       <c r="G110" s="10" t="inlineStr"/>
       <c r="H110" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="12" t="inlineStr">
         <is>
-          <t>Point 34</t>
+          <t>Point 24</t>
         </is>
       </c>
       <c r="B111" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C111" s="12" t="inlineStr">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="D111" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E111" s="12" t="inlineStr">
@@ -3880,235 +3880,1595 @@
         </is>
       </c>
       <c r="F111" s="13" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G111" s="13" t="inlineStr"/>
       <c r="H111" s="14" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="15" t="inlineStr">
+      <c r="A112" s="9" t="inlineStr">
+        <is>
+          <t>Point 25</t>
+        </is>
+      </c>
+      <c r="B112" s="9" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C112" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D112" s="9" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+        </is>
+      </c>
+      <c r="E112" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F112" s="10" t="n">
+        <v>682</v>
+      </c>
+      <c r="G112" s="10" t="inlineStr"/>
+      <c r="H112" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="12" t="inlineStr">
+        <is>
+          <t>Point 25</t>
+        </is>
+      </c>
+      <c r="B113" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C113" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D113" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E113" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F113" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="G113" s="13" t="inlineStr"/>
+      <c r="H113" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="9" t="inlineStr">
+        <is>
+          <t>Point 26</t>
+        </is>
+      </c>
+      <c r="B114" s="9" t="inlineStr">
+        <is>
+          <t>CON-2-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C114" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D114" s="9" t="inlineStr">
+        <is>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+        </is>
+      </c>
+      <c r="E114" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F114" s="10" t="n">
+        <v>744</v>
+      </c>
+      <c r="G114" s="10" t="inlineStr"/>
+      <c r="H114" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="12" t="inlineStr">
+        <is>
+          <t>Point 26</t>
+        </is>
+      </c>
+      <c r="B115" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C115" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D115" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E115" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F115" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G115" s="13" t="inlineStr"/>
+      <c r="H115" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="9" t="inlineStr">
+        <is>
+          <t>Point 26</t>
+        </is>
+      </c>
+      <c r="B116" s="9" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C116" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D116" s="9" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E116" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F116" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G116" s="10" t="inlineStr"/>
+      <c r="H116" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="12" t="inlineStr">
+        <is>
+          <t>Point 26</t>
+        </is>
+      </c>
+      <c r="B117" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-4</t>
+        </is>
+      </c>
+      <c r="C117" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D117" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 4</t>
+        </is>
+      </c>
+      <c r="E117" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F117" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G117" s="13" t="inlineStr"/>
+      <c r="H117" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="9" t="inlineStr">
+        <is>
+          <t>Point 26</t>
+        </is>
+      </c>
+      <c r="B118" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C118" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D118" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E118" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F118" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G118" s="10" t="inlineStr"/>
+      <c r="H118" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="12" t="inlineStr">
+        <is>
+          <t>Point 26</t>
+        </is>
+      </c>
+      <c r="B119" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C119" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D119" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E119" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F119" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="G119" s="13" t="inlineStr"/>
+      <c r="H119" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="9" t="inlineStr">
+        <is>
+          <t>Point 27</t>
+        </is>
+      </c>
+      <c r="B120" s="9" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C120" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D120" s="9" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+        </is>
+      </c>
+      <c r="E120" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F120" s="10" t="n">
+        <v>682</v>
+      </c>
+      <c r="G120" s="10" t="inlineStr"/>
+      <c r="H120" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="12" t="inlineStr">
+        <is>
+          <t>Point 27</t>
+        </is>
+      </c>
+      <c r="B121" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C121" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D121" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E121" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F121" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="G121" s="13" t="inlineStr"/>
+      <c r="H121" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="9" t="inlineStr">
+        <is>
+          <t>Point 28</t>
+        </is>
+      </c>
+      <c r="B122" s="9" t="inlineStr">
+        <is>
+          <t>CON-2-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C122" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D122" s="9" t="inlineStr">
+        <is>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+        </is>
+      </c>
+      <c r="E122" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F122" s="10" t="n">
+        <v>672</v>
+      </c>
+      <c r="G122" s="10" t="inlineStr"/>
+      <c r="H122" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="12" t="inlineStr">
+        <is>
+          <t>Point 28</t>
+        </is>
+      </c>
+      <c r="B123" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C123" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D123" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E123" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F123" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G123" s="13" t="inlineStr"/>
+      <c r="H123" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="9" t="inlineStr">
+        <is>
+          <t>Point 28</t>
+        </is>
+      </c>
+      <c r="B124" s="9" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C124" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D124" s="9" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E124" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F124" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G124" s="10" t="inlineStr"/>
+      <c r="H124" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="12" t="inlineStr">
+        <is>
+          <t>Point 28</t>
+        </is>
+      </c>
+      <c r="B125" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-4</t>
+        </is>
+      </c>
+      <c r="C125" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D125" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 4</t>
+        </is>
+      </c>
+      <c r="E125" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F125" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G125" s="13" t="inlineStr"/>
+      <c r="H125" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="9" t="inlineStr">
+        <is>
+          <t>Point 28</t>
+        </is>
+      </c>
+      <c r="B126" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C126" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D126" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E126" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F126" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G126" s="10" t="inlineStr"/>
+      <c r="H126" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="12" t="inlineStr">
+        <is>
+          <t>Point 28</t>
+        </is>
+      </c>
+      <c r="B127" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C127" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D127" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E127" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F127" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="G127" s="13" t="inlineStr"/>
+      <c r="H127" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="9" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B128" s="9" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C128" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D128" s="9" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+        </is>
+      </c>
+      <c r="E128" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F128" s="10" t="n">
+        <v>686</v>
+      </c>
+      <c r="G128" s="10" t="inlineStr"/>
+      <c r="H128" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="12" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B129" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C129" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D129" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E129" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F129" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="G129" s="13" t="inlineStr"/>
+      <c r="H129" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="9" t="inlineStr">
+        <is>
+          <t>Point 30</t>
+        </is>
+      </c>
+      <c r="B130" s="9" t="inlineStr">
+        <is>
+          <t>CON-2-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C130" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D130" s="9" t="inlineStr">
+        <is>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+        </is>
+      </c>
+      <c r="E130" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F130" s="10" t="n">
+        <v>670</v>
+      </c>
+      <c r="G130" s="10" t="inlineStr"/>
+      <c r="H130" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="12" t="inlineStr">
+        <is>
+          <t>Point 30</t>
+        </is>
+      </c>
+      <c r="B131" s="12" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C131" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D131" s="12" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E131" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F131" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G131" s="13" t="inlineStr"/>
+      <c r="H131" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="9" t="inlineStr">
+        <is>
+          <t>Point 30</t>
+        </is>
+      </c>
+      <c r="B132" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C132" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D132" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E132" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F132" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G132" s="10" t="inlineStr"/>
+      <c r="H132" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="12" t="inlineStr">
+        <is>
+          <t>Point 30</t>
+        </is>
+      </c>
+      <c r="B133" s="12" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C133" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D133" s="12" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E133" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F133" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G133" s="13" t="inlineStr"/>
+      <c r="H133" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="9" t="inlineStr">
+        <is>
+          <t>Point 30</t>
+        </is>
+      </c>
+      <c r="B134" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-4</t>
+        </is>
+      </c>
+      <c r="C134" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D134" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 4</t>
+        </is>
+      </c>
+      <c r="E134" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F134" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G134" s="10" t="inlineStr"/>
+      <c r="H134" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="12" t="inlineStr">
+        <is>
+          <t>Point 30</t>
+        </is>
+      </c>
+      <c r="B135" s="12" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C135" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D135" s="12" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E135" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F135" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G135" s="13" t="inlineStr"/>
+      <c r="H135" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="9" t="inlineStr">
+        <is>
+          <t>Point 30</t>
+        </is>
+      </c>
+      <c r="B136" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C136" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D136" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E136" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F136" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G136" s="10" t="inlineStr"/>
+      <c r="H136" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="12" t="inlineStr">
+        <is>
+          <t>Point 31</t>
+        </is>
+      </c>
+      <c r="B137" s="12" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C137" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D137" s="12" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+        </is>
+      </c>
+      <c r="E137" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F137" s="13" t="n">
+        <v>672</v>
+      </c>
+      <c r="G137" s="13" t="inlineStr"/>
+      <c r="H137" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="9" t="inlineStr">
+        <is>
+          <t>Point 31</t>
+        </is>
+      </c>
+      <c r="B138" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C138" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D138" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E138" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F138" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G138" s="10" t="inlineStr"/>
+      <c r="H138" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="12" t="inlineStr">
+        <is>
+          <t>Point 32</t>
+        </is>
+      </c>
+      <c r="B139" s="12" t="inlineStr">
+        <is>
+          <t>CON-2-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C139" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D139" s="12" t="inlineStr">
+        <is>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+        </is>
+      </c>
+      <c r="E139" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F139" s="13" t="n">
+        <v>672</v>
+      </c>
+      <c r="G139" s="13" t="inlineStr"/>
+      <c r="H139" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="9" t="inlineStr">
+        <is>
+          <t>Point 32</t>
+        </is>
+      </c>
+      <c r="B140" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C140" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D140" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E140" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F140" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G140" s="10" t="inlineStr"/>
+      <c r="H140" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="12" t="inlineStr">
+        <is>
+          <t>Point 32</t>
+        </is>
+      </c>
+      <c r="B141" s="12" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C141" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D141" s="12" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E141" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F141" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G141" s="13" t="inlineStr"/>
+      <c r="H141" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="9" t="inlineStr">
+        <is>
+          <t>Point 32</t>
+        </is>
+      </c>
+      <c r="B142" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-4</t>
+        </is>
+      </c>
+      <c r="C142" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D142" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 4</t>
+        </is>
+      </c>
+      <c r="E142" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F142" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G142" s="10" t="inlineStr"/>
+      <c r="H142" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="12" t="inlineStr">
+        <is>
+          <t>Point 32</t>
+        </is>
+      </c>
+      <c r="B143" s="12" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C143" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D143" s="12" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E143" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F143" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G143" s="13" t="inlineStr"/>
+      <c r="H143" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="9" t="inlineStr">
+        <is>
+          <t>Point 32</t>
+        </is>
+      </c>
+      <c r="B144" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C144" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D144" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E144" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F144" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G144" s="10" t="inlineStr"/>
+      <c r="H144" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="12" t="inlineStr">
+        <is>
+          <t>Point 33</t>
+        </is>
+      </c>
+      <c r="B145" s="12" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C145" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D145" s="12" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+        </is>
+      </c>
+      <c r="E145" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F145" s="13" t="n">
+        <v>682</v>
+      </c>
+      <c r="G145" s="13" t="inlineStr"/>
+      <c r="H145" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="9" t="inlineStr">
+        <is>
+          <t>Point 33</t>
+        </is>
+      </c>
+      <c r="B146" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C146" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D146" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E146" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F146" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G146" s="10" t="inlineStr"/>
+      <c r="H146" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="12" t="inlineStr">
+        <is>
+          <t>Point 34</t>
+        </is>
+      </c>
+      <c r="B147" s="12" t="inlineStr">
+        <is>
+          <t>CON-2-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C147" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D147" s="12" t="inlineStr">
+        <is>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+        </is>
+      </c>
+      <c r="E147" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F147" s="13" t="n">
+        <v>684</v>
+      </c>
+      <c r="G147" s="13" t="inlineStr"/>
+      <c r="H147" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="9" t="inlineStr">
+        <is>
+          <t>Point 34</t>
+        </is>
+      </c>
+      <c r="B148" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C148" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D148" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E148" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F148" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G148" s="10" t="inlineStr"/>
+      <c r="H148" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="12" t="inlineStr">
+        <is>
+          <t>Point 34</t>
+        </is>
+      </c>
+      <c r="B149" s="12" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C149" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D149" s="12" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E149" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F149" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G149" s="13" t="inlineStr"/>
+      <c r="H149" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="9" t="inlineStr">
+        <is>
+          <t>Point 34</t>
+        </is>
+      </c>
+      <c r="B150" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C150" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D150" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E150" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F150" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G150" s="10" t="inlineStr"/>
+      <c r="H150" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="12" t="inlineStr">
+        <is>
+          <t>Point 34</t>
+        </is>
+      </c>
+      <c r="B151" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C151" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D151" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E151" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F151" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="G151" s="13" t="inlineStr"/>
+      <c r="H151" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H112" s="16" t="n">
-        <v>21031.01000000001</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="7" t="inlineStr">
+      <c r="H152" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="7" t="inlineStr">
         <is>
           <t>Thursday (07/17/2025)</t>
         </is>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="8" t="inlineStr">
+    <row r="156">
+      <c r="A156" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B116" s="8" t="inlineStr">
+      <c r="B156" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C116" s="8" t="inlineStr">
+      <c r="C156" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D116" s="8" t="inlineStr">
+      <c r="D156" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E116" s="8" t="inlineStr">
+      <c r="E156" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F116" s="8" t="inlineStr">
+      <c r="F156" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G116" s="8" t="inlineStr">
+      <c r="G156" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H116" s="8" t="inlineStr">
+      <c r="H156" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="9" t="inlineStr">
+    <row r="157">
+      <c r="A157" s="9" t="inlineStr">
         <is>
           <t>Point 37</t>
         </is>
       </c>
-      <c r="B117" s="9" t="inlineStr">
+      <c r="B157" s="9" t="inlineStr">
         <is>
           <t>PLA-BACK</t>
         </is>
       </c>
-      <c r="C117" s="9" t="inlineStr">
+      <c r="C157" s="9" t="inlineStr">
         <is>
           <t>Inst</t>
         </is>
       </c>
-      <c r="D117" s="9" t="inlineStr">
+      <c r="D157" s="9" t="inlineStr">
         <is>
           <t>Difficult Location Equip Adder-Backyard</t>
         </is>
       </c>
-      <c r="E117" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F117" s="10" t="n">
+      <c r="E157" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F157" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="G117" s="10" t="inlineStr"/>
-      <c r="H117" s="11" t="n">
-        <v>952.8</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="12" t="inlineStr">
+      <c r="G157" s="10" t="inlineStr"/>
+      <c r="H157" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="12" t="inlineStr">
         <is>
           <t>Point 38</t>
         </is>
       </c>
-      <c r="B118" s="12" t="inlineStr">
+      <c r="B158" s="12" t="inlineStr">
         <is>
           <t>PLA-BACK</t>
         </is>
       </c>
-      <c r="C118" s="12" t="inlineStr">
+      <c r="C158" s="12" t="inlineStr">
         <is>
           <t>Inst</t>
         </is>
       </c>
-      <c r="D118" s="12" t="inlineStr">
+      <c r="D158" s="12" t="inlineStr">
         <is>
           <t>Difficult Location Equip Adder-Backyard</t>
         </is>
       </c>
-      <c r="E118" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F118" s="13" t="n">
+      <c r="E158" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F158" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="G118" s="13" t="inlineStr"/>
-      <c r="H118" s="14" t="n">
-        <v>952.8</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="9" t="inlineStr">
+      <c r="G158" s="13" t="inlineStr"/>
+      <c r="H158" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="9" t="inlineStr">
         <is>
           <t>Point 39</t>
         </is>
       </c>
-      <c r="B119" s="9" t="inlineStr">
+      <c r="B159" s="9" t="inlineStr">
         <is>
           <t>PLA-BACK</t>
         </is>
       </c>
-      <c r="C119" s="9" t="inlineStr">
+      <c r="C159" s="9" t="inlineStr">
         <is>
           <t>Inst</t>
         </is>
       </c>
-      <c r="D119" s="9" t="inlineStr">
+      <c r="D159" s="9" t="inlineStr">
         <is>
           <t>Difficult Location Equip Adder-Backyard</t>
         </is>
       </c>
-      <c r="E119" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F119" s="10" t="n">
+      <c r="E159" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F159" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="G119" s="10" t="inlineStr"/>
-      <c r="H119" s="11" t="n">
-        <v>952.8</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="12" t="inlineStr">
+      <c r="G159" s="10" t="inlineStr"/>
+      <c r="H159" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="12" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B120" s="12" t="inlineStr">
+      <c r="B160" s="12" t="inlineStr">
         <is>
           <t>PLA-DLOC</t>
         </is>
       </c>
-      <c r="C120" s="12" t="inlineStr">
+      <c r="C160" s="12" t="inlineStr">
         <is>
           <t>Inst</t>
         </is>
       </c>
-      <c r="D120" s="12" t="inlineStr">
+      <c r="D160" s="12" t="inlineStr">
         <is>
           <t>PLA,Difficult Location</t>
         </is>
       </c>
-      <c r="E120" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F120" s="13" t="n">
+      <c r="E160" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F160" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="G120" s="13" t="inlineStr"/>
-      <c r="H120" s="14" t="n">
-        <v>476.4</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="15" t="inlineStr">
+      <c r="G160" s="13" t="inlineStr"/>
+      <c r="H160" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H121" s="16" t="n">
-        <v>3334.8</v>
+      <c r="H161" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A78:H78"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="A115:H115"/>
+    <mergeCell ref="A161:G161"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A75:G75"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A112:G112"/>
+    <mergeCell ref="A155:H155"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A121:G121"/>
-    <mergeCell ref="A58:H58"/>
+    <mergeCell ref="A152:G152"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>

--- a/generated_docs/WR_89775268_WeekEnding_072025.xlsx
+++ b/generated_docs/WR_89775268_WeekEnding_072025.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I161"/>
+  <dimension ref="A2:I121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:48 PM</t>
+          <t>Report Generated On: 08/26/2025 10:00 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>38510.55</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P40</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -737,35 +733,35 @@
     <row r="16">
       <c r="A16" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B16" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C16" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D16" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E16" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F16" s="10" t="n">
-        <v>12</v>
+        <v>678</v>
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>630.54</v>
       </c>
     </row>
     <row r="17">
@@ -776,7 +772,7 @@
       </c>
       <c r="B17" s="12" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C17" s="12" t="inlineStr">
@@ -786,20 +782,20 @@
       </c>
       <c r="D17" s="12" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E17" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F17" s="13" t="n">
-        <v>678</v>
+        <v>1</v>
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="18">
@@ -810,7 +806,7 @@
       </c>
       <c r="B18" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C18" s="9" t="inlineStr">
@@ -820,7 +816,7 @@
       </c>
       <c r="D18" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E18" s="9" t="inlineStr">
@@ -833,7 +829,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="19">
@@ -844,7 +840,7 @@
       </c>
       <c r="B19" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C19" s="12" t="inlineStr">
@@ -854,7 +850,7 @@
       </c>
       <c r="D19" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E19" s="12" t="inlineStr">
@@ -867,7 +863,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="20">
@@ -878,7 +874,7 @@
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr">
@@ -888,7 +884,7 @@
       </c>
       <c r="D20" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E20" s="9" t="inlineStr">
@@ -901,52 +897,52 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="12" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B21" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C21" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D21" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E21" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F21" s="13" t="n">
-        <v>1</v>
+        <v>691</v>
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>0</v>
+        <v>1616.94</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>ANC-DHM-10-84-T1-C</t>
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr">
@@ -956,7 +952,7 @@
       </c>
       <c r="D22" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
       <c r="E22" s="9" t="inlineStr">
@@ -965,79 +961,79 @@
         </is>
       </c>
       <c r="F22" s="10" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B23" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>CNC-SNB-2</t>
         </is>
       </c>
       <c r="C23" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
         </is>
       </c>
       <c r="E23" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F23" s="13" t="n">
-        <v>691</v>
+        <v>2</v>
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>0</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D24" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E24" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F24" s="10" t="n">
-        <v>12</v>
+        <v>1134</v>
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>1054.62</v>
       </c>
     </row>
     <row r="25">
@@ -1048,7 +1044,7 @@
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>ANC-DHM-10-84-T1-C</t>
+          <t>DEC-20AL-C</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
@@ -1058,7 +1054,7 @@
       </c>
       <c r="D25" s="12" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
       <c r="E25" s="12" t="inlineStr">
@@ -1071,7 +1067,7 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>0</v>
+        <v>95.15000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -1082,7 +1078,7 @@
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>CNC-SNB-2</t>
+          <t>GYF-38-D-42P-EP-C</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
@@ -1092,7 +1088,7 @@
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -1101,11 +1097,11 @@
         </is>
       </c>
       <c r="F26" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>0</v>
+        <v>35.58</v>
       </c>
     </row>
     <row r="27">
@@ -1116,7 +1112,7 @@
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
@@ -1126,20 +1122,20 @@
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F27" s="13" t="n">
-        <v>1134</v>
+        <v>1</v>
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="28">
@@ -1150,7 +1146,7 @@
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>DEC-20AL-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
@@ -1160,7 +1156,7 @@
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1173,7 +1169,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="29">
@@ -1184,7 +1180,7 @@
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>GYD-MPY</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
@@ -1194,7 +1190,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>GYD,Marker-Plastic-Yellow</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E29" s="12" t="inlineStr">
@@ -1207,7 +1203,7 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="30">
@@ -1218,7 +1214,7 @@
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-78W-I-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
@@ -1228,7 +1224,7 @@
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,78Wire mt,Insulator Adder,Corros</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
@@ -1241,7 +1237,7 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="31">
@@ -1252,7 +1248,7 @@
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-42P-EP-C</t>
+          <t>SAA-DE-20-C</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
@@ -1262,7 +1258,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1275,86 +1271,86 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>GYW-38C</t>
+          <t>CND-S2</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
+          <t>CND,Stirrup #2</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F32" s="10" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>0</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>INS-15-D-S-C</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F33" s="13" t="n">
-        <v>1</v>
+        <v>690</v>
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>0</v>
+        <v>1614.6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
@@ -1364,31 +1360,31 @@
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F34" s="10" t="n">
-        <v>1</v>
+        <v>694</v>
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>0</v>
+        <v>645.42</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
@@ -1398,7 +1394,7 @@
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
@@ -1411,18 +1407,18 @@
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>PLD-EYE-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
@@ -1432,7 +1428,7 @@
       </c>
       <c r="D36" s="9" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend,Corrosive</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E36" s="9" t="inlineStr">
@@ -1441,17 +1437,17 @@
         </is>
       </c>
       <c r="F36" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B37" s="12" t="inlineStr">
@@ -1479,13 +1475,13 @@
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B38" s="9" t="inlineStr">
@@ -1513,52 +1509,52 @@
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B39" s="12" t="inlineStr">
         <is>
-          <t>SAA-DE-20-C</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C39" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D39" s="12" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E39" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F39" s="13" t="n">
-        <v>1</v>
+        <v>628</v>
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>0</v>
+        <v>1469.52</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C40" s="9" t="inlineStr">
@@ -1568,41 +1564,41 @@
       </c>
       <c r="D40" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E40" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F40" s="10" t="n">
-        <v>12</v>
+        <v>636</v>
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>0</v>
+        <v>591.48</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B41" s="12" t="inlineStr">
         <is>
-          <t>CND-S2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C41" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D41" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E41" s="12" t="inlineStr">
@@ -1615,62 +1611,62 @@
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B42" s="9" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C42" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D42" s="9" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E42" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F42" s="10" t="n">
-        <v>690</v>
+        <v>1</v>
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B43" s="12" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C43" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D43" s="12" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E43" s="12" t="inlineStr">
@@ -1679,22 +1675,22 @@
         </is>
       </c>
       <c r="F43" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B44" s="9" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C44" s="9" t="inlineStr">
@@ -1704,65 +1700,65 @@
       </c>
       <c r="D44" s="9" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E44" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F44" s="10" t="n">
-        <v>694</v>
+        <v>1</v>
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B45" s="12" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C45" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D45" s="12" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E45" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F45" s="13" t="n">
-        <v>1</v>
+        <v>709</v>
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>0</v>
+        <v>1659.06</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B46" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C46" s="9" t="inlineStr">
@@ -1772,31 +1768,31 @@
       </c>
       <c r="D46" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E46" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F46" s="10" t="n">
-        <v>1</v>
+        <v>714</v>
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>0</v>
+        <v>664.02</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B47" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C47" s="12" t="inlineStr">
@@ -1806,7 +1802,7 @@
       </c>
       <c r="D47" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E47" s="12" t="inlineStr">
@@ -1819,18 +1815,18 @@
       </c>
       <c r="G47" s="13" t="inlineStr"/>
       <c r="H47" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B48" s="9" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C48" s="9" t="inlineStr">
@@ -1840,7 +1836,7 @@
       </c>
       <c r="D48" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E48" s="9" t="inlineStr">
@@ -1853,18 +1849,18 @@
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B49" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C49" s="12" t="inlineStr">
@@ -1874,7 +1870,7 @@
       </c>
       <c r="D49" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E49" s="12" t="inlineStr">
@@ -1887,52 +1883,52 @@
       </c>
       <c r="G49" s="13" t="inlineStr"/>
       <c r="H49" s="14" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B50" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C50" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D50" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E50" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F50" s="10" t="n">
-        <v>12</v>
+        <v>716</v>
       </c>
       <c r="G50" s="10" t="inlineStr"/>
       <c r="H50" s="11" t="n">
-        <v>0</v>
+        <v>1675.44</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B51" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>XCO-27-100-8-C</t>
         </is>
       </c>
       <c r="C51" s="12" t="inlineStr">
@@ -1942,41 +1938,41 @@
       </c>
       <c r="D51" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
       <c r="E51" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F51" s="13" t="n">
-        <v>628</v>
+        <v>1</v>
       </c>
       <c r="G51" s="13" t="inlineStr"/>
       <c r="H51" s="14" t="n">
-        <v>0</v>
+        <v>62.42</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B52" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>SVD-SG10</t>
         </is>
       </c>
       <c r="C52" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D52" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>SVD, Service Grip, 1/0</t>
         </is>
       </c>
       <c r="E52" s="9" t="inlineStr">
@@ -1985,17 +1981,17 @@
         </is>
       </c>
       <c r="F52" s="10" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G52" s="10" t="inlineStr"/>
       <c r="H52" s="11" t="n">
-        <v>0</v>
+        <v>95.15000000000001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B53" s="12" t="inlineStr">
@@ -2019,22 +2015,22 @@
         </is>
       </c>
       <c r="F53" s="13" t="n">
-        <v>636</v>
+        <v>714</v>
       </c>
       <c r="G53" s="13" t="inlineStr"/>
       <c r="H53" s="14" t="n">
-        <v>0</v>
+        <v>664.02</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B54" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>EQL-1-4-C-2-S-X-C</t>
         </is>
       </c>
       <c r="C54" s="9" t="inlineStr">
@@ -2044,7 +2040,7 @@
       </c>
       <c r="D54" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
         </is>
       </c>
       <c r="E54" s="9" t="inlineStr">
@@ -2057,198 +2053,87 @@
       </c>
       <c r="G54" s="10" t="inlineStr"/>
       <c r="H54" s="11" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="12" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B55" s="12" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-C</t>
-        </is>
-      </c>
-      <c r="C55" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D55" s="12" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
-        </is>
-      </c>
-      <c r="E55" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F55" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G55" s="13" t="inlineStr"/>
-      <c r="H55" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="9" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B56" s="9" t="inlineStr">
-        <is>
-          <t>POL-40-4</t>
-        </is>
-      </c>
-      <c r="C56" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D56" s="9" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 4</t>
-        </is>
-      </c>
-      <c r="E56" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F56" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G56" s="10" t="inlineStr"/>
-      <c r="H56" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="12" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B57" s="12" t="inlineStr">
-        <is>
-          <t>SAA-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C57" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D57" s="12" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E57" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F57" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G57" s="13" t="inlineStr"/>
-      <c r="H57" s="14" t="n">
-        <v>0</v>
+      <c r="A55" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H55" s="16" t="n">
+        <v>14144.74</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="9" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B58" s="9" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C58" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D58" s="9" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E58" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F58" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="G58" s="10" t="inlineStr"/>
-      <c r="H58" s="11" t="n">
-        <v>0</v>
+      <c r="A58" s="7" t="inlineStr">
+        <is>
+          <t>Tuesday (07/15/2025)</t>
+        </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="12" t="inlineStr">
-        <is>
-          <t>Point 17</t>
-        </is>
-      </c>
-      <c r="B59" s="12" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C59" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D59" s="12" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
-        </is>
-      </c>
-      <c r="E59" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F59" s="13" t="n">
-        <v>709</v>
-      </c>
-      <c r="G59" s="13" t="inlineStr"/>
-      <c r="H59" s="14" t="n">
-        <v>0</v>
+      <c r="A59" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B59" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D59" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F59" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G59" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H59" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="9" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B60" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C60" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D60" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E60" s="9" t="inlineStr">
@@ -2257,100 +2142,100 @@
         </is>
       </c>
       <c r="F60" s="10" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G60" s="10" t="inlineStr"/>
       <c r="H60" s="11" t="n">
-        <v>0</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="12" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B61" s="12" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>CNC-SNB-10</t>
         </is>
       </c>
       <c r="C61" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D61" s="12" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>CNC,Splice Non-Tension Bare,#336-#1033</t>
         </is>
       </c>
       <c r="E61" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F61" s="13" t="n">
-        <v>714</v>
+        <v>3</v>
       </c>
       <c r="G61" s="13" t="inlineStr"/>
       <c r="H61" s="14" t="n">
-        <v>0</v>
+        <v>60.87</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="9" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B62" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C62" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D62" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E62" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F62" s="10" t="n">
-        <v>1</v>
+        <v>699</v>
       </c>
       <c r="G62" s="10" t="inlineStr"/>
       <c r="H62" s="11" t="n">
-        <v>0</v>
+        <v>1635.66</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="12" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B63" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>DEC-20AL-C</t>
         </is>
       </c>
       <c r="C63" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D63" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
       <c r="E63" s="12" t="inlineStr">
@@ -2359,32 +2244,32 @@
         </is>
       </c>
       <c r="F63" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63" s="13" t="inlineStr"/>
       <c r="H63" s="14" t="n">
-        <v>0</v>
+        <v>572.5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="9" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B64" s="9" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>DEG-10-PNA</t>
         </is>
       </c>
       <c r="C64" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D64" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>DEG,1/0,Primary Neutral Al</t>
         </is>
       </c>
       <c r="E64" s="9" t="inlineStr">
@@ -2393,45 +2278,45 @@
         </is>
       </c>
       <c r="F64" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G64" s="10" t="inlineStr"/>
       <c r="H64" s="11" t="n">
-        <v>0</v>
+        <v>572.5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B65" s="12" t="inlineStr">
         <is>
-          <t>PLD-EYE-C</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C65" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D65" s="12" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend,Corrosive</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E65" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F65" s="13" t="n">
-        <v>2</v>
+        <v>690</v>
       </c>
       <c r="G65" s="13" t="inlineStr"/>
       <c r="H65" s="14" t="n">
-        <v>0</v>
+        <v>641.7</v>
       </c>
     </row>
     <row r="66">
@@ -2442,7 +2327,7 @@
       </c>
       <c r="B66" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C66" s="9" t="inlineStr">
@@ -2452,7 +2337,7 @@
       </c>
       <c r="D66" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E66" s="9" t="inlineStr">
@@ -2461,32 +2346,32 @@
         </is>
       </c>
       <c r="F66" s="10" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G66" s="10" t="inlineStr"/>
       <c r="H66" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="12" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B67" s="12" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C67" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E67" s="12" t="inlineStr">
@@ -2499,62 +2384,62 @@
       </c>
       <c r="G67" s="13" t="inlineStr"/>
       <c r="H67" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B68" s="9" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C68" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D68" s="9" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E68" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F68" s="10" t="n">
-        <v>716</v>
+        <v>1</v>
       </c>
       <c r="G68" s="10" t="inlineStr"/>
       <c r="H68" s="11" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B69" s="12" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C69" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E69" s="12" t="inlineStr">
@@ -2563,22 +2448,22 @@
         </is>
       </c>
       <c r="F69" s="13" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G69" s="13" t="inlineStr"/>
       <c r="H69" s="14" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B70" s="9" t="inlineStr">
         <is>
-          <t>XCO-27-100-8-C</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C70" s="9" t="inlineStr">
@@ -2588,41 +2473,41 @@
       </c>
       <c r="D70" s="9" t="inlineStr">
         <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E70" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F70" s="10" t="n">
-        <v>1</v>
+        <v>645</v>
       </c>
       <c r="G70" s="10" t="inlineStr"/>
       <c r="H70" s="11" t="n">
-        <v>0</v>
+        <v>1509.3</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B71" s="12" t="inlineStr">
         <is>
-          <t>SVD-SG10</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C71" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D71" s="12" t="inlineStr">
         <is>
-          <t>SVD, Service Grip, 1/0</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E71" s="12" t="inlineStr">
@@ -2635,13 +2520,13 @@
       </c>
       <c r="G71" s="13" t="inlineStr"/>
       <c r="H71" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B72" s="9" t="inlineStr">
@@ -2665,22 +2550,22 @@
         </is>
       </c>
       <c r="F72" s="10" t="n">
-        <v>714</v>
+        <v>654</v>
       </c>
       <c r="G72" s="10" t="inlineStr"/>
       <c r="H72" s="11" t="n">
-        <v>0</v>
+        <v>608.22</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="12" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B73" s="12" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C73" s="12" t="inlineStr">
@@ -2690,7 +2575,7 @@
       </c>
       <c r="D73" s="12" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E73" s="12" t="inlineStr">
@@ -2703,28 +2588,28 @@
       </c>
       <c r="G73" s="13" t="inlineStr"/>
       <c r="H73" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="9" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 22</t>
         </is>
       </c>
       <c r="B74" s="9" t="inlineStr">
         <is>
-          <t>SWI-35P-CO1-100-H</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C74" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D74" s="9" t="inlineStr">
         <is>
-          <t>SWI,35kV,Porc,LineCutout 1PH,100A,Hook</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E74" s="9" t="inlineStr">
@@ -2733,81 +2618,192 @@
         </is>
       </c>
       <c r="F74" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" s="10" t="inlineStr"/>
       <c r="H74" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H75" s="16" t="n">
-        <v>0</v>
+      <c r="A75" s="12" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B75" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-4</t>
+        </is>
+      </c>
+      <c r="C75" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D75" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 4</t>
+        </is>
+      </c>
+      <c r="E75" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F75" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" s="13" t="inlineStr"/>
+      <c r="H75" s="14" t="n">
+        <v>198.88</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B76" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C76" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D76" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E76" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F76" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" s="10" t="inlineStr"/>
+      <c r="H76" s="11" t="n">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="12" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B77" s="12" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C77" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D77" s="12" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+        </is>
+      </c>
+      <c r="E77" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F77" s="13" t="n">
+        <v>672</v>
+      </c>
+      <c r="G77" s="13" t="inlineStr"/>
+      <c r="H77" s="14" t="n">
+        <v>1572.48</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="7" t="inlineStr">
-        <is>
-          <t>Tuesday (07/15/2025)</t>
-        </is>
+      <c r="A78" s="9" t="inlineStr">
+        <is>
+          <t>Point 24</t>
+        </is>
+      </c>
+      <c r="B78" s="9" t="inlineStr">
+        <is>
+          <t>CON-2-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C78" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D78" s="9" t="inlineStr">
+        <is>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+        </is>
+      </c>
+      <c r="E78" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F78" s="10" t="n">
+        <v>618</v>
+      </c>
+      <c r="G78" s="10" t="inlineStr"/>
+      <c r="H78" s="11" t="n">
+        <v>574.74</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B79" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C79" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D79" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E79" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F79" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G79" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H79" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
+      <c r="A79" s="12" t="inlineStr">
+        <is>
+          <t>Point 24</t>
+        </is>
+      </c>
+      <c r="B79" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C79" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D79" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E79" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F79" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" s="13" t="inlineStr"/>
+      <c r="H79" s="14" t="n">
+        <v>31.08</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="9" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 24</t>
         </is>
       </c>
       <c r="B80" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C80" s="9" t="inlineStr">
@@ -2817,7 +2813,7 @@
       </c>
       <c r="D80" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E80" s="9" t="inlineStr">
@@ -2826,22 +2822,22 @@
         </is>
       </c>
       <c r="F80" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G80" s="10" t="inlineStr"/>
       <c r="H80" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="12" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 24</t>
         </is>
       </c>
       <c r="B81" s="12" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C81" s="12" t="inlineStr">
@@ -2851,7 +2847,7 @@
       </c>
       <c r="D81" s="12" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E81" s="12" t="inlineStr">
@@ -2860,32 +2856,32 @@
         </is>
       </c>
       <c r="F81" s="13" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G81" s="13" t="inlineStr"/>
       <c r="H81" s="14" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 24</t>
         </is>
       </c>
       <c r="B82" s="9" t="inlineStr">
         <is>
-          <t>CNC-SNB-10</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C82" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D82" s="9" t="inlineStr">
         <is>
-          <t>CNC,Splice Non-Tension Bare,#336-#1033</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E82" s="9" t="inlineStr">
@@ -2894,17 +2890,17 @@
         </is>
       </c>
       <c r="F82" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G82" s="10" t="inlineStr"/>
       <c r="H82" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B83" s="12" t="inlineStr">
@@ -2928,66 +2924,66 @@
         </is>
       </c>
       <c r="F83" s="13" t="n">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="G83" s="13" t="inlineStr"/>
       <c r="H83" s="14" t="n">
-        <v>0</v>
+        <v>1595.88</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 26</t>
         </is>
       </c>
       <c r="B84" s="9" t="inlineStr">
         <is>
-          <t>DEC-20AL-C</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C84" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D84" s="9" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E84" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F84" s="10" t="n">
-        <v>2</v>
+        <v>744</v>
       </c>
       <c r="G84" s="10" t="inlineStr"/>
       <c r="H84" s="11" t="n">
-        <v>0</v>
+        <v>691.92</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 26</t>
         </is>
       </c>
       <c r="B85" s="12" t="inlineStr">
         <is>
-          <t>DEG-10-PNA</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C85" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D85" s="12" t="inlineStr">
         <is>
-          <t>DEG,1/0,Primary Neutral Al</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E85" s="12" t="inlineStr">
@@ -2996,32 +2992,32 @@
         </is>
       </c>
       <c r="F85" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G85" s="13" t="inlineStr"/>
       <c r="H85" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 26</t>
         </is>
       </c>
       <c r="B86" s="9" t="inlineStr">
         <is>
-          <t>INS-15-D-S-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C86" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D86" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E86" s="9" t="inlineStr">
@@ -3030,32 +3026,32 @@
         </is>
       </c>
       <c r="F86" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G86" s="10" t="inlineStr"/>
       <c r="H86" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 26</t>
         </is>
       </c>
       <c r="B87" s="12" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C87" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D87" s="12" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E87" s="12" t="inlineStr">
@@ -3064,22 +3060,22 @@
         </is>
       </c>
       <c r="F87" s="13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G87" s="13" t="inlineStr"/>
       <c r="H87" s="14" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="9" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 26</t>
         </is>
       </c>
       <c r="B88" s="9" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C88" s="9" t="inlineStr">
@@ -3089,65 +3085,65 @@
       </c>
       <c r="D88" s="9" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E88" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F88" s="10" t="n">
-        <v>690</v>
+        <v>1</v>
       </c>
       <c r="G88" s="10" t="inlineStr"/>
       <c r="H88" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="12" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B89" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C89" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D89" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E89" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F89" s="13" t="n">
-        <v>1</v>
+        <v>682</v>
       </c>
       <c r="G89" s="13" t="inlineStr"/>
       <c r="H89" s="14" t="n">
-        <v>0</v>
+        <v>1595.88</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="9" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 28</t>
         </is>
       </c>
       <c r="B90" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C90" s="9" t="inlineStr">
@@ -3157,31 +3153,31 @@
       </c>
       <c r="D90" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E90" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F90" s="10" t="n">
-        <v>1</v>
+        <v>672</v>
       </c>
       <c r="G90" s="10" t="inlineStr"/>
       <c r="H90" s="11" t="n">
-        <v>0</v>
+        <v>624.96</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="12" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 28</t>
         </is>
       </c>
       <c r="B91" s="12" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C91" s="12" t="inlineStr">
@@ -3191,7 +3187,7 @@
       </c>
       <c r="D91" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E91" s="12" t="inlineStr">
@@ -3204,18 +3200,18 @@
       </c>
       <c r="G91" s="13" t="inlineStr"/>
       <c r="H91" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="9" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 28</t>
         </is>
       </c>
       <c r="B92" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C92" s="9" t="inlineStr">
@@ -3225,7 +3221,7 @@
       </c>
       <c r="D92" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E92" s="9" t="inlineStr">
@@ -3238,62 +3234,62 @@
       </c>
       <c r="G92" s="10" t="inlineStr"/>
       <c r="H92" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="12" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 28</t>
         </is>
       </c>
       <c r="B93" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C93" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D93" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E93" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F93" s="13" t="n">
-        <v>645</v>
+        <v>1</v>
       </c>
       <c r="G93" s="13" t="inlineStr"/>
       <c r="H93" s="14" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 28</t>
         </is>
       </c>
       <c r="B94" s="9" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C94" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D94" s="9" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E94" s="9" t="inlineStr">
@@ -3302,22 +3298,22 @@
         </is>
       </c>
       <c r="F94" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G94" s="10" t="inlineStr"/>
       <c r="H94" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="12" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B95" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C95" s="12" t="inlineStr">
@@ -3327,65 +3323,65 @@
       </c>
       <c r="D95" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E95" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F95" s="13" t="n">
-        <v>1</v>
+        <v>686</v>
       </c>
       <c r="G95" s="13" t="inlineStr"/>
       <c r="H95" s="14" t="n">
-        <v>0</v>
+        <v>1605.24</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 30</t>
         </is>
       </c>
       <c r="B96" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C96" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D96" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E96" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F96" s="10" t="n">
-        <v>12</v>
+        <v>670</v>
       </c>
       <c r="G96" s="10" t="inlineStr"/>
       <c r="H96" s="11" t="n">
-        <v>0</v>
+        <v>623.1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="12" t="inlineStr">
         <is>
-          <t>Point 22</t>
+          <t>Point 30</t>
         </is>
       </c>
       <c r="B97" s="12" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C97" s="12" t="inlineStr">
@@ -3395,31 +3391,31 @@
       </c>
       <c r="D97" s="12" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E97" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F97" s="13" t="n">
-        <v>654</v>
+        <v>1</v>
       </c>
       <c r="G97" s="13" t="inlineStr"/>
       <c r="H97" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="9" t="inlineStr">
         <is>
-          <t>Point 22</t>
+          <t>Point 30</t>
         </is>
       </c>
       <c r="B98" s="9" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C98" s="9" t="inlineStr">
@@ -3429,7 +3425,7 @@
       </c>
       <c r="D98" s="9" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E98" s="9" t="inlineStr">
@@ -3442,18 +3438,18 @@
       </c>
       <c r="G98" s="10" t="inlineStr"/>
       <c r="H98" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="12" t="inlineStr">
         <is>
-          <t>Point 22</t>
+          <t>Point 30</t>
         </is>
       </c>
       <c r="B99" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C99" s="12" t="inlineStr">
@@ -3463,7 +3459,7 @@
       </c>
       <c r="D99" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E99" s="12" t="inlineStr">
@@ -3476,18 +3472,18 @@
       </c>
       <c r="G99" s="13" t="inlineStr"/>
       <c r="H99" s="14" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="9" t="inlineStr">
         <is>
-          <t>Point 22</t>
+          <t>Point 30</t>
         </is>
       </c>
       <c r="B100" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C100" s="9" t="inlineStr">
@@ -3497,7 +3493,7 @@
       </c>
       <c r="D100" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E100" s="9" t="inlineStr">
@@ -3510,52 +3506,52 @@
       </c>
       <c r="G100" s="10" t="inlineStr"/>
       <c r="H100" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="12" t="inlineStr">
         <is>
-          <t>Point 22</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B101" s="12" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C101" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D101" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E101" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F101" s="13" t="n">
-        <v>1</v>
+        <v>672</v>
       </c>
       <c r="G101" s="13" t="inlineStr"/>
       <c r="H101" s="14" t="n">
-        <v>0</v>
+        <v>1572.48</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="9" t="inlineStr">
         <is>
-          <t>Point 22</t>
+          <t>Point 32</t>
         </is>
       </c>
       <c r="B102" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C102" s="9" t="inlineStr">
@@ -3565,31 +3561,31 @@
       </c>
       <c r="D102" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E102" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F102" s="10" t="n">
-        <v>1</v>
+        <v>672</v>
       </c>
       <c r="G102" s="10" t="inlineStr"/>
       <c r="H102" s="11" t="n">
-        <v>0</v>
+        <v>624.96</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="12" t="inlineStr">
         <is>
-          <t>Point 22</t>
+          <t>Point 32</t>
         </is>
       </c>
       <c r="B103" s="12" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C103" s="12" t="inlineStr">
@@ -3599,7 +3595,7 @@
       </c>
       <c r="D103" s="12" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E103" s="12" t="inlineStr">
@@ -3608,66 +3604,66 @@
         </is>
       </c>
       <c r="F103" s="13" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G103" s="13" t="inlineStr"/>
       <c r="H103" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="9" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 32</t>
         </is>
       </c>
       <c r="B104" s="9" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C104" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D104" s="9" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E104" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F104" s="10" t="n">
-        <v>672</v>
+        <v>1</v>
       </c>
       <c r="G104" s="10" t="inlineStr"/>
       <c r="H104" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="12" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 32</t>
         </is>
       </c>
       <c r="B105" s="12" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C105" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D105" s="12" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E105" s="12" t="inlineStr">
@@ -3676,22 +3672,22 @@
         </is>
       </c>
       <c r="F105" s="13" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G105" s="13" t="inlineStr"/>
       <c r="H105" s="14" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="9" t="inlineStr">
         <is>
-          <t>Point 24</t>
+          <t>Point 32</t>
         </is>
       </c>
       <c r="B106" s="9" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C106" s="9" t="inlineStr">
@@ -3701,65 +3697,65 @@
       </c>
       <c r="D106" s="9" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E106" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F106" s="10" t="n">
-        <v>618</v>
+        <v>1</v>
       </c>
       <c r="G106" s="10" t="inlineStr"/>
       <c r="H106" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="12" t="inlineStr">
         <is>
-          <t>Point 24</t>
+          <t>Point 33</t>
         </is>
       </c>
       <c r="B107" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C107" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D107" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E107" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F107" s="13" t="n">
-        <v>1</v>
+        <v>682</v>
       </c>
       <c r="G107" s="13" t="inlineStr"/>
       <c r="H107" s="14" t="n">
-        <v>0</v>
+        <v>1595.88</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="9" t="inlineStr">
         <is>
-          <t>Point 24</t>
+          <t>Point 34</t>
         </is>
       </c>
       <c r="B108" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C108" s="9" t="inlineStr">
@@ -3769,31 +3765,31 @@
       </c>
       <c r="D108" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E108" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F108" s="10" t="n">
-        <v>1</v>
+        <v>684</v>
       </c>
       <c r="G108" s="10" t="inlineStr"/>
       <c r="H108" s="11" t="n">
-        <v>0</v>
+        <v>636.12</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="12" t="inlineStr">
         <is>
-          <t>Point 24</t>
+          <t>Point 34</t>
         </is>
       </c>
       <c r="B109" s="12" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C109" s="12" t="inlineStr">
@@ -3803,7 +3799,7 @@
       </c>
       <c r="D109" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E109" s="12" t="inlineStr">
@@ -3816,18 +3812,18 @@
       </c>
       <c r="G109" s="13" t="inlineStr"/>
       <c r="H109" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="9" t="inlineStr">
         <is>
-          <t>Point 24</t>
+          <t>Point 34</t>
         </is>
       </c>
       <c r="B110" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C110" s="9" t="inlineStr">
@@ -3837,7 +3833,7 @@
       </c>
       <c r="D110" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E110" s="9" t="inlineStr">
@@ -3850,18 +3846,18 @@
       </c>
       <c r="G110" s="10" t="inlineStr"/>
       <c r="H110" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="12" t="inlineStr">
         <is>
-          <t>Point 24</t>
+          <t>Point 34</t>
         </is>
       </c>
       <c r="B111" s="12" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C111" s="12" t="inlineStr">
@@ -3871,7 +3867,7 @@
       </c>
       <c r="D111" s="12" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E111" s="12" t="inlineStr">
@@ -3880,1595 +3876,235 @@
         </is>
       </c>
       <c r="F111" s="13" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G111" s="13" t="inlineStr"/>
       <c r="H111" s="14" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="9" t="inlineStr">
-        <is>
-          <t>Point 25</t>
-        </is>
-      </c>
-      <c r="B112" s="9" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C112" s="9" t="inlineStr">
+      <c r="A112" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H112" s="16" t="n">
+        <v>21031.01000000001</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="7" t="inlineStr">
+        <is>
+          <t>Thursday (07/17/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B116" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C116" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D116" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E116" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F116" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G116" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H116" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="9" t="inlineStr">
+        <is>
+          <t>Point 37</t>
+        </is>
+      </c>
+      <c r="B117" s="9" t="inlineStr">
+        <is>
+          <t>PLA-BACK</t>
+        </is>
+      </c>
+      <c r="C117" s="9" t="inlineStr">
         <is>
           <t>Inst</t>
         </is>
       </c>
-      <c r="D112" s="9" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
-        </is>
-      </c>
-      <c r="E112" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F112" s="10" t="n">
-        <v>682</v>
-      </c>
-      <c r="G112" s="10" t="inlineStr"/>
-      <c r="H112" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="12" t="inlineStr">
-        <is>
-          <t>Point 25</t>
-        </is>
-      </c>
-      <c r="B113" s="12" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C113" s="12" t="inlineStr">
+      <c r="D117" s="9" t="inlineStr">
+        <is>
+          <t>Difficult Location Equip Adder-Backyard</t>
+        </is>
+      </c>
+      <c r="E117" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F117" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G117" s="10" t="inlineStr"/>
+      <c r="H117" s="11" t="n">
+        <v>952.8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="12" t="inlineStr">
+        <is>
+          <t>Point 38</t>
+        </is>
+      </c>
+      <c r="B118" s="12" t="inlineStr">
+        <is>
+          <t>PLA-BACK</t>
+        </is>
+      </c>
+      <c r="C118" s="12" t="inlineStr">
         <is>
           <t>Inst</t>
         </is>
       </c>
-      <c r="D113" s="12" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E113" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F113" s="13" t="n">
-        <v>12</v>
-      </c>
-      <c r="G113" s="13" t="inlineStr"/>
-      <c r="H113" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="9" t="inlineStr">
-        <is>
-          <t>Point 26</t>
-        </is>
-      </c>
-      <c r="B114" s="9" t="inlineStr">
-        <is>
-          <t>CON-2-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C114" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D114" s="9" t="inlineStr">
-        <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
-        </is>
-      </c>
-      <c r="E114" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F114" s="10" t="n">
-        <v>744</v>
-      </c>
-      <c r="G114" s="10" t="inlineStr"/>
-      <c r="H114" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="12" t="inlineStr">
-        <is>
-          <t>Point 26</t>
-        </is>
-      </c>
-      <c r="B115" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C115" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D115" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E115" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F115" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G115" s="13" t="inlineStr"/>
-      <c r="H115" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="9" t="inlineStr">
-        <is>
-          <t>Point 26</t>
-        </is>
-      </c>
-      <c r="B116" s="9" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-C</t>
-        </is>
-      </c>
-      <c r="C116" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D116" s="9" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
-        </is>
-      </c>
-      <c r="E116" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F116" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G116" s="10" t="inlineStr"/>
-      <c r="H116" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="12" t="inlineStr">
-        <is>
-          <t>Point 26</t>
-        </is>
-      </c>
-      <c r="B117" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-4</t>
-        </is>
-      </c>
-      <c r="C117" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D117" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 4</t>
-        </is>
-      </c>
-      <c r="E117" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F117" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G117" s="13" t="inlineStr"/>
-      <c r="H117" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="9" t="inlineStr">
-        <is>
-          <t>Point 26</t>
-        </is>
-      </c>
-      <c r="B118" s="9" t="inlineStr">
-        <is>
-          <t>SAA-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C118" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D118" s="9" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E118" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F118" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G118" s="10" t="inlineStr"/>
-      <c r="H118" s="11" t="n">
-        <v>0</v>
+      <c r="D118" s="12" t="inlineStr">
+        <is>
+          <t>Difficult Location Equip Adder-Backyard</t>
+        </is>
+      </c>
+      <c r="E118" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F118" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="G118" s="13" t="inlineStr"/>
+      <c r="H118" s="14" t="n">
+        <v>952.8</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="12" t="inlineStr">
-        <is>
-          <t>Point 26</t>
-        </is>
-      </c>
-      <c r="B119" s="12" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C119" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D119" s="12" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E119" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F119" s="13" t="n">
-        <v>12</v>
-      </c>
-      <c r="G119" s="13" t="inlineStr"/>
-      <c r="H119" s="14" t="n">
-        <v>0</v>
+      <c r="A119" s="9" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B119" s="9" t="inlineStr">
+        <is>
+          <t>PLA-BACK</t>
+        </is>
+      </c>
+      <c r="C119" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D119" s="9" t="inlineStr">
+        <is>
+          <t>Difficult Location Equip Adder-Backyard</t>
+        </is>
+      </c>
+      <c r="E119" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F119" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G119" s="10" t="inlineStr"/>
+      <c r="H119" s="11" t="n">
+        <v>952.8</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="9" t="inlineStr">
-        <is>
-          <t>Point 27</t>
-        </is>
-      </c>
-      <c r="B120" s="9" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C120" s="9" t="inlineStr">
+      <c r="A120" s="12" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B120" s="12" t="inlineStr">
+        <is>
+          <t>PLA-DLOC</t>
+        </is>
+      </c>
+      <c r="C120" s="12" t="inlineStr">
         <is>
           <t>Inst</t>
         </is>
       </c>
-      <c r="D120" s="9" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
-        </is>
-      </c>
-      <c r="E120" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F120" s="10" t="n">
-        <v>682</v>
-      </c>
-      <c r="G120" s="10" t="inlineStr"/>
-      <c r="H120" s="11" t="n">
-        <v>0</v>
+      <c r="D120" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Difficult Location</t>
+        </is>
+      </c>
+      <c r="E120" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F120" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G120" s="13" t="inlineStr"/>
+      <c r="H120" s="14" t="n">
+        <v>476.4</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="12" t="inlineStr">
-        <is>
-          <t>Point 27</t>
-        </is>
-      </c>
-      <c r="B121" s="12" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C121" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D121" s="12" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E121" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F121" s="13" t="n">
-        <v>12</v>
-      </c>
-      <c r="G121" s="13" t="inlineStr"/>
-      <c r="H121" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="9" t="inlineStr">
-        <is>
-          <t>Point 28</t>
-        </is>
-      </c>
-      <c r="B122" s="9" t="inlineStr">
-        <is>
-          <t>CON-2-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C122" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D122" s="9" t="inlineStr">
-        <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
-        </is>
-      </c>
-      <c r="E122" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F122" s="10" t="n">
-        <v>672</v>
-      </c>
-      <c r="G122" s="10" t="inlineStr"/>
-      <c r="H122" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="12" t="inlineStr">
-        <is>
-          <t>Point 28</t>
-        </is>
-      </c>
-      <c r="B123" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C123" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D123" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E123" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F123" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G123" s="13" t="inlineStr"/>
-      <c r="H123" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="9" t="inlineStr">
-        <is>
-          <t>Point 28</t>
-        </is>
-      </c>
-      <c r="B124" s="9" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-C</t>
-        </is>
-      </c>
-      <c r="C124" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D124" s="9" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
-        </is>
-      </c>
-      <c r="E124" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F124" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G124" s="10" t="inlineStr"/>
-      <c r="H124" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="12" t="inlineStr">
-        <is>
-          <t>Point 28</t>
-        </is>
-      </c>
-      <c r="B125" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-4</t>
-        </is>
-      </c>
-      <c r="C125" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D125" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 4</t>
-        </is>
-      </c>
-      <c r="E125" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F125" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G125" s="13" t="inlineStr"/>
-      <c r="H125" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="9" t="inlineStr">
-        <is>
-          <t>Point 28</t>
-        </is>
-      </c>
-      <c r="B126" s="9" t="inlineStr">
-        <is>
-          <t>SAA-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C126" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D126" s="9" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E126" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F126" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G126" s="10" t="inlineStr"/>
-      <c r="H126" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="12" t="inlineStr">
-        <is>
-          <t>Point 28</t>
-        </is>
-      </c>
-      <c r="B127" s="12" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C127" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D127" s="12" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E127" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F127" s="13" t="n">
-        <v>12</v>
-      </c>
-      <c r="G127" s="13" t="inlineStr"/>
-      <c r="H127" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="9" t="inlineStr">
-        <is>
-          <t>Point 29</t>
-        </is>
-      </c>
-      <c r="B128" s="9" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C128" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D128" s="9" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
-        </is>
-      </c>
-      <c r="E128" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F128" s="10" t="n">
-        <v>686</v>
-      </c>
-      <c r="G128" s="10" t="inlineStr"/>
-      <c r="H128" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="12" t="inlineStr">
-        <is>
-          <t>Point 29</t>
-        </is>
-      </c>
-      <c r="B129" s="12" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C129" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D129" s="12" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E129" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F129" s="13" t="n">
-        <v>12</v>
-      </c>
-      <c r="G129" s="13" t="inlineStr"/>
-      <c r="H129" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="9" t="inlineStr">
-        <is>
-          <t>Point 30</t>
-        </is>
-      </c>
-      <c r="B130" s="9" t="inlineStr">
-        <is>
-          <t>CON-2-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C130" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D130" s="9" t="inlineStr">
-        <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
-        </is>
-      </c>
-      <c r="E130" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F130" s="10" t="n">
-        <v>670</v>
-      </c>
-      <c r="G130" s="10" t="inlineStr"/>
-      <c r="H130" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="12" t="inlineStr">
-        <is>
-          <t>Point 30</t>
-        </is>
-      </c>
-      <c r="B131" s="12" t="inlineStr">
-        <is>
-          <t>GND-MD</t>
-        </is>
-      </c>
-      <c r="C131" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D131" s="12" t="inlineStr">
-        <is>
-          <t>GND,Wire Mldg Only</t>
-        </is>
-      </c>
-      <c r="E131" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F131" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G131" s="13" t="inlineStr"/>
-      <c r="H131" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="9" t="inlineStr">
-        <is>
-          <t>Point 30</t>
-        </is>
-      </c>
-      <c r="B132" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C132" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D132" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E132" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F132" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G132" s="10" t="inlineStr"/>
-      <c r="H132" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="12" t="inlineStr">
-        <is>
-          <t>Point 30</t>
-        </is>
-      </c>
-      <c r="B133" s="12" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-C</t>
-        </is>
-      </c>
-      <c r="C133" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D133" s="12" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
-        </is>
-      </c>
-      <c r="E133" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F133" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G133" s="13" t="inlineStr"/>
-      <c r="H133" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="9" t="inlineStr">
-        <is>
-          <t>Point 30</t>
-        </is>
-      </c>
-      <c r="B134" s="9" t="inlineStr">
-        <is>
-          <t>POL-40-4</t>
-        </is>
-      </c>
-      <c r="C134" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D134" s="9" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 4</t>
-        </is>
-      </c>
-      <c r="E134" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F134" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G134" s="10" t="inlineStr"/>
-      <c r="H134" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="12" t="inlineStr">
-        <is>
-          <t>Point 30</t>
-        </is>
-      </c>
-      <c r="B135" s="12" t="inlineStr">
-        <is>
-          <t>SAA-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C135" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D135" s="12" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E135" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F135" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G135" s="13" t="inlineStr"/>
-      <c r="H135" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="9" t="inlineStr">
-        <is>
-          <t>Point 30</t>
-        </is>
-      </c>
-      <c r="B136" s="9" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C136" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D136" s="9" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E136" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F136" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="G136" s="10" t="inlineStr"/>
-      <c r="H136" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="12" t="inlineStr">
-        <is>
-          <t>Point 31</t>
-        </is>
-      </c>
-      <c r="B137" s="12" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C137" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D137" s="12" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
-        </is>
-      </c>
-      <c r="E137" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F137" s="13" t="n">
-        <v>672</v>
-      </c>
-      <c r="G137" s="13" t="inlineStr"/>
-      <c r="H137" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="9" t="inlineStr">
-        <is>
-          <t>Point 31</t>
-        </is>
-      </c>
-      <c r="B138" s="9" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C138" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D138" s="9" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E138" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F138" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="G138" s="10" t="inlineStr"/>
-      <c r="H138" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="12" t="inlineStr">
-        <is>
-          <t>Point 32</t>
-        </is>
-      </c>
-      <c r="B139" s="12" t="inlineStr">
-        <is>
-          <t>CON-2-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C139" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D139" s="12" t="inlineStr">
-        <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
-        </is>
-      </c>
-      <c r="E139" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F139" s="13" t="n">
-        <v>672</v>
-      </c>
-      <c r="G139" s="13" t="inlineStr"/>
-      <c r="H139" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="9" t="inlineStr">
-        <is>
-          <t>Point 32</t>
-        </is>
-      </c>
-      <c r="B140" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C140" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D140" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E140" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F140" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G140" s="10" t="inlineStr"/>
-      <c r="H140" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="12" t="inlineStr">
-        <is>
-          <t>Point 32</t>
-        </is>
-      </c>
-      <c r="B141" s="12" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-C</t>
-        </is>
-      </c>
-      <c r="C141" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D141" s="12" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
-        </is>
-      </c>
-      <c r="E141" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F141" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G141" s="13" t="inlineStr"/>
-      <c r="H141" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="9" t="inlineStr">
-        <is>
-          <t>Point 32</t>
-        </is>
-      </c>
-      <c r="B142" s="9" t="inlineStr">
-        <is>
-          <t>POL-40-4</t>
-        </is>
-      </c>
-      <c r="C142" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D142" s="9" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 4</t>
-        </is>
-      </c>
-      <c r="E142" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F142" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G142" s="10" t="inlineStr"/>
-      <c r="H142" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="12" t="inlineStr">
-        <is>
-          <t>Point 32</t>
-        </is>
-      </c>
-      <c r="B143" s="12" t="inlineStr">
-        <is>
-          <t>SAA-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C143" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D143" s="12" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E143" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F143" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G143" s="13" t="inlineStr"/>
-      <c r="H143" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="9" t="inlineStr">
-        <is>
-          <t>Point 32</t>
-        </is>
-      </c>
-      <c r="B144" s="9" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C144" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D144" s="9" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E144" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F144" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="G144" s="10" t="inlineStr"/>
-      <c r="H144" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="12" t="inlineStr">
-        <is>
-          <t>Point 33</t>
-        </is>
-      </c>
-      <c r="B145" s="12" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C145" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D145" s="12" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
-        </is>
-      </c>
-      <c r="E145" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F145" s="13" t="n">
-        <v>682</v>
-      </c>
-      <c r="G145" s="13" t="inlineStr"/>
-      <c r="H145" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="9" t="inlineStr">
-        <is>
-          <t>Point 33</t>
-        </is>
-      </c>
-      <c r="B146" s="9" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C146" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D146" s="9" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E146" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F146" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="G146" s="10" t="inlineStr"/>
-      <c r="H146" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="12" t="inlineStr">
-        <is>
-          <t>Point 34</t>
-        </is>
-      </c>
-      <c r="B147" s="12" t="inlineStr">
-        <is>
-          <t>CON-2-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C147" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D147" s="12" t="inlineStr">
-        <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
-        </is>
-      </c>
-      <c r="E147" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F147" s="13" t="n">
-        <v>684</v>
-      </c>
-      <c r="G147" s="13" t="inlineStr"/>
-      <c r="H147" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="9" t="inlineStr">
-        <is>
-          <t>Point 34</t>
-        </is>
-      </c>
-      <c r="B148" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C148" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D148" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E148" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F148" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G148" s="10" t="inlineStr"/>
-      <c r="H148" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="12" t="inlineStr">
-        <is>
-          <t>Point 34</t>
-        </is>
-      </c>
-      <c r="B149" s="12" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-C</t>
-        </is>
-      </c>
-      <c r="C149" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D149" s="12" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
-        </is>
-      </c>
-      <c r="E149" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F149" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G149" s="13" t="inlineStr"/>
-      <c r="H149" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="9" t="inlineStr">
-        <is>
-          <t>Point 34</t>
-        </is>
-      </c>
-      <c r="B150" s="9" t="inlineStr">
-        <is>
-          <t>SAA-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C150" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D150" s="9" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E150" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F150" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G150" s="10" t="inlineStr"/>
-      <c r="H150" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="12" t="inlineStr">
-        <is>
-          <t>Point 34</t>
-        </is>
-      </c>
-      <c r="B151" s="12" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C151" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D151" s="12" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E151" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F151" s="13" t="n">
-        <v>12</v>
-      </c>
-      <c r="G151" s="13" t="inlineStr"/>
-      <c r="H151" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="15" t="inlineStr">
+      <c r="A121" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H152" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="7" t="inlineStr">
-        <is>
-          <t>Thursday (07/17/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B156" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C156" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D156" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E156" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F156" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G156" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H156" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="9" t="inlineStr">
-        <is>
-          <t>Point 37</t>
-        </is>
-      </c>
-      <c r="B157" s="9" t="inlineStr">
-        <is>
-          <t>PLA-BACK</t>
-        </is>
-      </c>
-      <c r="C157" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D157" s="9" t="inlineStr">
-        <is>
-          <t>Difficult Location Equip Adder-Backyard</t>
-        </is>
-      </c>
-      <c r="E157" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F157" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="G157" s="10" t="inlineStr"/>
-      <c r="H157" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="12" t="inlineStr">
-        <is>
-          <t>Point 38</t>
-        </is>
-      </c>
-      <c r="B158" s="12" t="inlineStr">
-        <is>
-          <t>PLA-BACK</t>
-        </is>
-      </c>
-      <c r="C158" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D158" s="12" t="inlineStr">
-        <is>
-          <t>Difficult Location Equip Adder-Backyard</t>
-        </is>
-      </c>
-      <c r="E158" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F158" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="G158" s="13" t="inlineStr"/>
-      <c r="H158" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="9" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B159" s="9" t="inlineStr">
-        <is>
-          <t>PLA-BACK</t>
-        </is>
-      </c>
-      <c r="C159" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D159" s="9" t="inlineStr">
-        <is>
-          <t>Difficult Location Equip Adder-Backyard</t>
-        </is>
-      </c>
-      <c r="E159" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F159" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="G159" s="10" t="inlineStr"/>
-      <c r="H159" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="12" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B160" s="12" t="inlineStr">
-        <is>
-          <t>PLA-DLOC</t>
-        </is>
-      </c>
-      <c r="C160" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D160" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Difficult Location</t>
-        </is>
-      </c>
-      <c r="E160" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F160" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="G160" s="13" t="inlineStr"/>
-      <c r="H160" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H161" s="16" t="n">
-        <v>0</v>
+      <c r="H121" s="16" t="n">
+        <v>3334.8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A78:H78"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A161:G161"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="A115:H115"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A75:G75"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A155:H155"/>
+    <mergeCell ref="A112:G112"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A152:G152"/>
+    <mergeCell ref="A121:G121"/>
+    <mergeCell ref="A58:H58"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
